--- a/municipal/ENG/Hotels/Guests/Imereti/C. Kutaisi.xlsx
+++ b/municipal/ENG/Hotels/Guests/Imereti/C. Kutaisi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4.4 Guests\Imereti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\4.4 Guests\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>From Georgia</t>
-  </si>
-  <si>
-    <t>(Men)</t>
   </si>
   <si>
     <t>Business trip</t>
@@ -117,6 +114,9 @@
       </rPr>
       <t xml:space="preserve"> by country and purpose of arrival in C. Kutaisi  Municipality</t>
     </r>
+  </si>
+  <si>
+    <t>(person)</t>
   </si>
 </sst>
 </file>
@@ -342,11 +342,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,11 +372,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -676,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:61" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -692,7 +692,7 @@
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
@@ -828,16 +828,16 @@
       <c r="A4" s="38"/>
       <c r="B4" s="40"/>
       <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -896,14 +896,14 @@
       <c r="BI4" s="3"/>
     </row>
     <row r="5" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="44">
         <v>2010</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -962,7 +962,7 @@
     </row>
     <row r="6" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9">
         <v>18732</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="7" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="9" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10">
         <v>7046</v>
@@ -1184,7 +1184,7 @@
         <v>4476</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="10">
         <v>1659</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="10" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="11" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10">
         <v>2386</v>
@@ -1319,7 +1319,7 @@
         <v>1047</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="10">
         <v>851</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="12" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10">
         <v>1519</v>
@@ -1394,7 +1394,7 @@
         <v>990</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="10">
         <v>525</v>
@@ -1457,21 +1457,21 @@
     </row>
     <row r="13" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="43">
+        <v>9</v>
+      </c>
+      <c r="B13" s="33">
         <v>3141</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="33">
         <v>419</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="33">
         <v>2439</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="43">
+      <c r="E13" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="33">
         <v>283</v>
       </c>
       <c r="G13" s="25"/>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="15" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="9">
         <v>34744</v>
@@ -1609,7 +1609,7 @@
         <v>8100</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="9">
         <v>12642</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="16" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1749,7 +1749,7 @@
         <v>5406</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="10">
         <v>6397</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="10">
         <v>13279</v>
@@ -1769,7 +1769,7 @@
         <v>2694</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="10">
         <v>6245</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="10">
         <v>4753</v>
@@ -1799,7 +1799,7 @@
         <v>1473</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="10">
         <v>3152</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="10">
         <v>1264</v>
@@ -1819,7 +1819,7 @@
         <v>95</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="10">
         <v>1128</v>
@@ -1827,21 +1827,21 @@
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="43">
+        <v>9</v>
+      </c>
+      <c r="B22" s="33">
         <v>7262</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="33">
         <v>4171</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="33">
         <v>1126</v>
       </c>
-      <c r="E22" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="43">
+      <c r="E22" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="33">
         <v>1965</v>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="9">
         <v>56536</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="10">
         <v>15157</v>
@@ -1919,7 +1919,7 @@
         <v>2173</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="10">
         <v>610</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="10">
         <v>3560</v>
@@ -1949,7 +1949,7 @@
         <v>975</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="10">
         <v>162</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="10">
         <v>2672</v>
@@ -1969,7 +1969,7 @@
         <v>247</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="10">
         <v>325</v>
@@ -1977,21 +1977,21 @@
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="43">
+        <v>9</v>
+      </c>
+      <c r="B31" s="33">
         <v>8925</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="33">
         <v>7851</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="33">
         <v>951</v>
       </c>
-      <c r="E31" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="43">
+      <c r="E31" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="33">
         <v>123</v>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="9">
         <v>42112</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="10">
         <v>19220</v>
@@ -2069,7 +2069,7 @@
         <v>1388</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="10">
         <v>1197</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="10">
         <v>8059</v>
@@ -2099,7 +2099,7 @@
         <v>307</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="10">
         <v>7</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="10">
         <v>7927</v>
@@ -2119,7 +2119,7 @@
         <v>352</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="10">
         <v>260</v>
@@ -2127,21 +2127,21 @@
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="43">
+        <v>9</v>
+      </c>
+      <c r="B40" s="33">
         <v>3234</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="33">
         <v>1575</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="33">
         <v>729</v>
       </c>
-      <c r="E40" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="43">
+      <c r="E40" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="33">
         <v>930</v>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="9">
         <v>54896</v>
@@ -2169,7 +2169,7 @@
         <v>18241</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="9">
         <v>4866</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2199,7 +2199,7 @@
         <v>17236</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="10">
         <v>4521</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="10">
         <v>24886</v>
@@ -2219,7 +2219,7 @@
         <v>1005</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" s="10">
         <v>345</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="10">
         <v>11023</v>
@@ -2249,7 +2249,7 @@
         <v>219</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="10">
         <v>100</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="10">
         <v>11358</v>
@@ -2269,7 +2269,7 @@
         <v>388</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="10">
         <v>124</v>
@@ -2277,21 +2277,21 @@
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="43">
+        <v>9</v>
+      </c>
+      <c r="B49" s="33">
         <v>2505</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="33">
         <v>1986</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="33">
         <v>398</v>
       </c>
-      <c r="E49" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="43">
+      <c r="E49" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="33">
         <v>121</v>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="9">
         <v>75208</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="10">
         <v>24773</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="10">
         <v>13619</v>
@@ -2399,7 +2399,7 @@
         <v>303</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="10">
         <v>307</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="10">
         <v>7399</v>
@@ -2427,21 +2427,21 @@
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="43">
+        <v>9</v>
+      </c>
+      <c r="B58" s="33">
         <v>3755</v>
       </c>
-      <c r="C58" s="43">
+      <c r="C58" s="33">
         <v>2685</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="33">
         <v>658</v>
       </c>
-      <c r="E58" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="43">
+      <c r="E58" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="33">
         <v>412</v>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="9">
         <v>81246</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="10">
         <v>38335</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="10">
         <v>19857</v>
@@ -2549,7 +2549,7 @@
         <v>523</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F65" s="10">
         <v>508</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="10">
         <v>13899</v>
@@ -2577,21 +2577,21 @@
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="43">
+        <v>9</v>
+      </c>
+      <c r="B67" s="33">
         <v>4579</v>
       </c>
-      <c r="C67" s="43">
+      <c r="C67" s="33">
         <v>3612</v>
       </c>
-      <c r="D67" s="43">
+      <c r="D67" s="33">
         <v>318</v>
       </c>
-      <c r="E67" s="44">
+      <c r="E67" s="34">
         <v>26</v>
       </c>
-      <c r="F67" s="43">
+      <c r="F67" s="33">
         <v>623</v>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" s="9">
         <v>98175</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="10">
         <v>46584</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="10">
         <v>24865</v>
@@ -2699,7 +2699,7 @@
         <v>1039</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" s="10">
         <v>652</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="10">
         <v>13890</v>
@@ -2727,21 +2727,21 @@
     </row>
     <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="43">
+        <v>9</v>
+      </c>
+      <c r="B76" s="33">
         <v>7829</v>
       </c>
-      <c r="C76" s="43">
+      <c r="C76" s="33">
         <v>6542</v>
       </c>
-      <c r="D76" s="43">
+      <c r="D76" s="33">
         <v>558</v>
       </c>
-      <c r="E76" s="44">
+      <c r="E76" s="34">
         <v>55</v>
       </c>
-      <c r="F76" s="43">
+      <c r="F76" s="33">
         <v>674</v>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="9">
         <v>123690</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="10">
         <v>69755</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="10">
         <v>29486</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="10">
         <v>20899</v>
@@ -2877,21 +2877,21 @@
     </row>
     <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="43">
+        <v>9</v>
+      </c>
+      <c r="B85" s="33">
         <v>19370</v>
       </c>
-      <c r="C85" s="43">
+      <c r="C85" s="33">
         <v>10386</v>
       </c>
-      <c r="D85" s="43">
+      <c r="D85" s="33">
         <v>508</v>
       </c>
-      <c r="E85" s="44">
+      <c r="E85" s="34">
         <v>50</v>
       </c>
-      <c r="F85" s="43">
+      <c r="F85" s="33">
         <v>8426</v>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="9">
         <v>164888</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="10">
         <v>104470</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="10">
         <v>55808</v>
@@ -2999,7 +2999,7 @@
         <v>3194</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F92" s="10">
         <v>27</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="10">
         <v>28182</v>
@@ -3019,7 +3019,7 @@
         <v>242</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F93" s="10">
         <v>9</v>
@@ -3027,21 +3027,21 @@
     </row>
     <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="43">
+        <v>9</v>
+      </c>
+      <c r="B94" s="33">
         <v>20480</v>
       </c>
-      <c r="C94" s="43">
+      <c r="C94" s="33">
         <v>19750</v>
       </c>
-      <c r="D94" s="43">
+      <c r="D94" s="33">
         <v>421</v>
       </c>
-      <c r="E94" s="44">
+      <c r="E94" s="34">
         <v>5</v>
       </c>
-      <c r="F94" s="43">
+      <c r="F94" s="33">
         <v>304</v>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="9">
         <v>25250</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" s="10">
         <v>4247</v>
@@ -3119,7 +3119,7 @@
         <v>173</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F99" s="10">
         <v>151</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101" s="10">
         <v>846</v>
@@ -3149,7 +3149,7 @@
         <v>43</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F101" s="10">
         <v>1</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102" s="10">
         <v>366</v>
@@ -3169,29 +3169,29 @@
         <v>75</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="43">
+        <v>9</v>
+      </c>
+      <c r="B103" s="33">
         <v>3035</v>
       </c>
-      <c r="C103" s="43">
+      <c r="C103" s="33">
         <v>2830</v>
       </c>
-      <c r="D103" s="43">
+      <c r="D103" s="33">
         <v>55</v>
       </c>
-      <c r="E103" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="43">
+      <c r="E103" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="33">
         <v>150</v>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" s="9">
         <v>75659</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="10">
         <v>27419</v>
@@ -3269,7 +3269,7 @@
         <v>3868</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F108" s="10">
         <v>716</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" s="10">
         <v>10359</v>
@@ -3299,7 +3299,7 @@
         <v>663</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F110" s="10">
         <v>202</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" s="10">
         <v>7126</v>
@@ -3319,7 +3319,7 @@
         <v>1806</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F111" s="10">
         <v>34</v>
@@ -3327,27 +3327,27 @@
     </row>
     <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="43">
+        <v>9</v>
+      </c>
+      <c r="B112" s="33">
         <v>9934</v>
       </c>
-      <c r="C112" s="43">
+      <c r="C112" s="33">
         <v>8055</v>
       </c>
-      <c r="D112" s="43">
+      <c r="D112" s="33">
         <v>1399</v>
       </c>
-      <c r="E112" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="43">
+      <c r="E112" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="33">
         <v>480</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3396,12 +3396,12 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="33"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="43"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
@@ -3452,12 +3452,12 @@
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="43"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
@@ -3508,12 +3508,12 @@
       <c r="F132" s="10"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="33"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
+      <c r="A133" s="43"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
@@ -3564,12 +3564,12 @@
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
+      <c r="A140" s="43"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
@@ -3620,12 +3620,12 @@
       <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="33"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
+      <c r="A147" s="43"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="43"/>
+      <c r="F147" s="43"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
@@ -3676,12 +3676,12 @@
       <c r="F153" s="10"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="33"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
+      <c r="A154" s="43"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="43"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
@@ -3732,12 +3732,12 @@
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="33"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33"/>
+      <c r="A161" s="43"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="43"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
@@ -3788,12 +3788,12 @@
       <c r="F167" s="10"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="33"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
+      <c r="A168" s="43"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="43"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="43"/>
+      <c r="F168" s="43"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
@@ -3844,12 +3844,12 @@
       <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="33"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
+      <c r="A175" s="43"/>
+      <c r="B175" s="43"/>
+      <c r="C175" s="43"/>
+      <c r="D175" s="43"/>
+      <c r="E175" s="43"/>
+      <c r="F175" s="43"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="17"/>
@@ -3900,12 +3900,12 @@
       <c r="F181" s="10"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="33"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
+      <c r="A182" s="43"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="43"/>
+      <c r="D182" s="43"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="17"/>
@@ -3957,17 +3957,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="A175:F175"/>
     <mergeCell ref="A182:F182"/>
     <mergeCell ref="A5:F5"/>
@@ -3984,6 +3973,17 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A95:F95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
